--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ministry of Water and Environment (Uganda)</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -706,13 +706,16 @@
     <t>Name: uganda-wash-perf-score</t>
   </si>
   <si>
-    <t>Description: Ugandan District WASH performance score </t>
+    <t>Description: District Wash Performance Score</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Ministry of Water and Environment (Uganda)</t>
+    <t>Source: Water and Environment Sector Performance Reports 2010-2014 - Ministry of Water and Environment</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.mwe.go.ug/index.php?option=com_docman&amp;task=cat_view&amp;Itemid=223&amp;gid=15</t>
   </si>
   <si>
     <t/>
@@ -727,7 +730,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1097,32 +1103,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -1138,6 +1144,16 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -706,13 +706,13 @@
     <t>Name: uganda-wash-perf-score</t>
   </si>
   <si>
-    <t>Description: District Wash Performance Score</t>
+    <t>Description: District wash performance score</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Water and Environment Sector Performance Reports 2010-2014 - Ministry of Water and Environment</t>
+    <t>Source: Water and environment sector performance reports 2010â€“2014 â€“ Ministry of Water and Environment</t>
   </si>
   <si>
     <t>Source-link: http://www.mwe.go.ug/index.php?option=com_docman&amp;task=cat_view&amp;Itemid=223&amp;gid=15</t>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -706,7 +706,7 @@
     <t>Name: uganda-wash-perf-score</t>
   </si>
   <si>
-    <t>Description: District wash performance score</t>
+    <t>Description: District WASH performance score</t>
   </si>
   <si>
     <t>Units of measure: %</t>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -739,7 +739,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +1184,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
@@ -858,9 +1196,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
@@ -868,9 +1208,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
@@ -880,9 +1222,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
@@ -892,9 +1236,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
@@ -904,9 +1250,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
@@ -916,9 +1264,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
@@ -928,9 +1278,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
@@ -940,9 +1292,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
@@ -952,9 +1306,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
@@ -964,9 +1320,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
@@ -976,9 +1334,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
@@ -988,9 +1348,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
@@ -1000,9 +1362,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
@@ -1012,9 +1376,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
@@ -1024,9 +1390,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
@@ -1036,9 +1404,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
@@ -1048,9 +1418,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
@@ -1060,9 +1432,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
@@ -1072,9 +1446,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1084,9 +1460,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
@@ -1096,9 +1474,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
@@ -1108,9 +1488,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
@@ -1120,9 +1502,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
@@ -1132,9 +1516,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
@@ -1144,9 +1530,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
@@ -1156,9 +1544,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
@@ -1168,9 +1558,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
@@ -1180,9 +1572,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
@@ -1192,9 +1586,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
@@ -1204,9 +1600,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
@@ -1216,9 +1614,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33"/>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
@@ -1228,9 +1628,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
@@ -1240,9 +1642,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
@@ -1252,9 +1656,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
@@ -1264,9 +1670,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
@@ -1276,9 +1684,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
@@ -1288,9 +1698,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
@@ -1300,9 +1712,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
@@ -1312,9 +1726,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
@@ -1324,9 +1740,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
@@ -1336,9 +1754,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
@@ -1348,9 +1768,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
@@ -1360,9 +1782,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
@@ -1372,9 +1796,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
@@ -1384,9 +1810,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
@@ -1396,9 +1824,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
@@ -1408,9 +1838,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
@@ -1420,9 +1852,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
@@ -1432,9 +1866,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
@@ -1444,9 +1880,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
@@ -1456,9 +1894,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
@@ -1468,9 +1908,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
@@ -1480,9 +1922,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
@@ -1492,9 +1936,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
@@ -1504,9 +1950,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
@@ -1516,9 +1964,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
@@ -1528,9 +1978,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
@@ -1540,9 +1992,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
@@ -1552,9 +2006,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
@@ -1564,9 +2020,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
@@ -1576,9 +2034,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
@@ -1588,9 +2048,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
@@ -1600,9 +2062,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
@@ -1612,9 +2076,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
@@ -1624,9 +2090,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
@@ -1636,9 +2104,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
@@ -1648,9 +2118,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
@@ -1660,9 +2132,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
@@ -1672,9 +2146,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
@@ -1684,9 +2160,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
@@ -1696,9 +2174,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73"/>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
@@ -1708,9 +2188,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
@@ -1720,9 +2202,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
@@ -1732,9 +2216,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
@@ -1744,9 +2230,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
@@ -1756,9 +2244,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
@@ -1768,9 +2258,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
@@ -1780,9 +2272,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
@@ -1792,9 +2286,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
@@ -1804,9 +2300,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
@@ -1816,9 +2314,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
@@ -1828,9 +2328,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
@@ -1840,9 +2342,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
@@ -1852,9 +2356,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
@@ -1864,9 +2370,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
@@ -1876,9 +2384,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
@@ -1888,9 +2398,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -1900,9 +2412,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
@@ -1912,9 +2426,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
@@ -1924,9 +2440,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
@@ -1936,9 +2454,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -1948,9 +2468,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
@@ -1960,9 +2482,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
@@ -1972,9 +2496,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
@@ -1984,9 +2510,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
@@ -1996,9 +2524,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
@@ -2008,9 +2538,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
@@ -2020,9 +2552,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
@@ -2032,9 +2566,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
@@ -2044,9 +2580,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
@@ -2056,9 +2594,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
@@ -2068,9 +2608,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
@@ -2080,9 +2622,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
@@ -2092,9 +2636,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
@@ -2104,9 +2650,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
@@ -2116,9 +2664,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
@@ -2128,9 +2678,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2140,9 +2692,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
@@ -2152,9 +2706,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
@@ -2164,9 +2720,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
@@ -2176,9 +2734,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
@@ -2205,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -2218,13 +2778,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>15</v>
@@ -2232,7 +2792,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>63</v>
@@ -2240,7 +2800,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>50</v>
@@ -2248,7 +2808,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>43</v>
@@ -2256,7 +2816,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>55</v>
@@ -2264,7 +2824,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>45</v>
@@ -2272,7 +2832,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>60</v>
@@ -2280,7 +2840,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>50</v>
@@ -2288,7 +2848,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>55</v>
@@ -2296,7 +2856,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>30</v>
@@ -2304,7 +2864,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>55</v>
@@ -2312,7 +2872,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>58</v>
@@ -2320,7 +2880,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>55</v>
@@ -2328,7 +2888,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>35</v>
@@ -2336,7 +2896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>68</v>
@@ -2344,7 +2904,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>50</v>
@@ -2352,7 +2912,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>43</v>
@@ -2360,7 +2920,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>40</v>
@@ -2368,7 +2928,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
         <v>30</v>
@@ -2376,7 +2936,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>50</v>
@@ -2384,7 +2944,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>30</v>
@@ -2392,7 +2952,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>55</v>
@@ -2400,7 +2960,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>51</v>
@@ -2408,7 +2968,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>48</v>
@@ -2416,7 +2976,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>38</v>
@@ -2424,7 +2984,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>48</v>
@@ -2432,7 +2992,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>73</v>
@@ -2440,7 +3000,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>40</v>
@@ -2448,7 +3008,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>38</v>
@@ -2456,7 +3016,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>75</v>
@@ -2464,7 +3024,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>35</v>
@@ -2472,7 +3032,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
         <v>65</v>
@@ -2480,7 +3040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>45</v>
@@ -2488,7 +3048,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>58</v>
@@ -2496,7 +3056,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>50</v>
@@ -2504,7 +3064,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
         <v>30</v>
@@ -2512,7 +3072,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>75</v>
@@ -2520,7 +3080,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>88</v>
@@ -2528,7 +3088,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>30</v>
@@ -2536,7 +3096,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>40</v>
@@ -2544,7 +3104,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>45</v>
@@ -2552,7 +3112,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>45</v>
@@ -2560,7 +3120,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>33</v>
@@ -2568,7 +3128,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>45</v>
@@ -2576,7 +3136,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>40</v>
@@ -2584,7 +3144,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>58</v>
@@ -2592,7 +3152,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>38</v>
@@ -2600,7 +3160,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>55</v>
@@ -2608,7 +3168,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
         <v>75</v>
@@ -2616,7 +3176,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>38</v>
@@ -2624,7 +3184,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>42</v>
@@ -2632,7 +3192,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>60</v>
@@ -2640,7 +3200,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>70</v>
@@ -2648,7 +3208,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>65</v>
@@ -2656,7 +3216,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>70</v>
@@ -2664,7 +3224,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>50</v>
@@ -2672,7 +3232,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>45</v>
@@ -2680,7 +3240,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>63</v>
@@ -2688,7 +3248,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>72</v>
@@ -2696,7 +3256,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>25</v>
@@ -2704,7 +3264,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>48</v>
@@ -2712,7 +3272,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>15</v>
@@ -2720,7 +3280,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>73</v>
@@ -2728,7 +3288,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>60</v>
@@ -2736,7 +3296,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>15</v>
@@ -2744,7 +3304,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>35</v>
@@ -2752,7 +3312,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>45</v>
@@ -2760,7 +3320,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71" t="n">
         <v>65</v>
@@ -2768,7 +3328,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>70</v>
@@ -2776,7 +3336,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>60</v>
@@ -2784,7 +3344,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>75</v>
@@ -2792,7 +3352,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
         <v>30</v>
@@ -2800,7 +3360,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>30</v>
@@ -2808,7 +3368,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>65</v>
@@ -2816,7 +3376,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>77</v>
@@ -2824,7 +3384,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>25</v>
@@ -2832,7 +3392,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80" t="n">
         <v>55</v>
@@ -2840,7 +3400,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>10</v>
@@ -2848,7 +3408,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>35</v>
@@ -2856,7 +3416,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>35</v>
@@ -2864,7 +3424,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>50</v>
@@ -2872,7 +3432,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>60</v>
@@ -2880,7 +3440,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>45</v>
@@ -2888,7 +3448,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>35</v>
@@ -2896,7 +3456,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>50</v>
@@ -2904,7 +3464,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>80</v>
@@ -2912,7 +3472,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>53</v>
@@ -2920,7 +3480,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>40</v>
@@ -2928,7 +3488,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>25</v>
@@ -2936,7 +3496,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>60</v>
@@ -2944,7 +3504,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>45</v>
@@ -2952,7 +3512,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>45</v>
@@ -2960,7 +3520,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>50</v>
@@ -2968,7 +3528,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>78</v>
@@ -2976,7 +3536,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98" t="n">
         <v>50</v>
@@ -2984,7 +3544,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>68</v>
@@ -2992,7 +3552,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>51</v>
@@ -3000,7 +3560,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>66</v>
@@ -3008,7 +3568,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>73</v>
@@ -3016,7 +3576,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>45</v>
@@ -3024,7 +3584,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>35</v>
@@ -3032,7 +3592,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>48</v>
@@ -3040,7 +3600,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>53</v>
@@ -3048,7 +3608,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>40</v>
@@ -3056,7 +3616,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>40</v>
@@ -3064,7 +3624,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>30</v>
@@ -3072,7 +3632,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>48</v>
@@ -3080,7 +3640,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>35</v>
@@ -3088,7 +3648,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>40</v>
@@ -3096,7 +3656,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>63</v>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -1191,7 +1191,7 @@
         <v>2014</v>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1204,7 +1204,9 @@
       <c r="C3" t="n">
         <v>2014</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1217,7 +1219,7 @@
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1231,7 +1233,7 @@
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1245,7 +1247,7 @@
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1259,7 +1261,7 @@
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1273,7 +1275,7 @@
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1287,7 +1289,7 @@
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1303,7 @@
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1315,7 +1317,7 @@
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1329,7 +1331,7 @@
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1343,7 +1345,7 @@
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1357,7 +1359,7 @@
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1371,7 +1373,7 @@
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -1385,7 +1387,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -1399,7 +1401,7 @@
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1413,7 +1415,7 @@
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -1427,7 +1429,7 @@
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1443,7 @@
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1455,7 +1457,7 @@
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1471,7 @@
         <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -1483,7 +1485,7 @@
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1499,7 @@
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1511,7 +1513,7 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1525,7 +1527,7 @@
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1539,7 +1541,7 @@
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -1553,7 +1555,7 @@
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -1567,7 +1569,7 @@
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -1581,7 +1583,7 @@
         <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1597,7 @@
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -1609,7 +1611,7 @@
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
@@ -1623,7 +1625,7 @@
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1639,7 @@
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -1651,7 +1653,7 @@
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -1665,7 +1667,7 @@
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -1679,7 +1681,7 @@
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1693,7 +1695,7 @@
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -1707,7 +1709,7 @@
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -1721,7 +1723,7 @@
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -1735,7 +1737,7 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1749,7 +1751,7 @@
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1763,7 +1765,7 @@
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
@@ -1776,9 +1778,7 @@
       <c r="C44" t="n">
         <v>2014</v>
       </c>
-      <c r="D44" t="n">
-        <v>45</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1791,7 +1791,7 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
@@ -1805,7 +1805,7 @@
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1819,7 +1819,7 @@
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -1847,7 +1847,7 @@
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -1875,7 +1875,7 @@
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -1889,7 +1889,7 @@
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -1903,7 +1903,7 @@
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -1917,7 +1917,7 @@
         <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
@@ -1931,7 +1931,7 @@
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
@@ -1945,7 +1945,7 @@
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
@@ -1959,7 +1959,7 @@
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -1973,7 +1973,7 @@
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
@@ -1987,7 +1987,7 @@
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +2001,7 @@
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
@@ -2015,7 +2015,7 @@
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
@@ -2029,7 +2029,7 @@
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -2043,7 +2043,7 @@
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
@@ -2057,7 +2057,7 @@
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -2071,7 +2071,7 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -2099,7 +2099,7 @@
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
@@ -2113,7 +2113,7 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
@@ -2127,7 +2127,7 @@
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -2141,7 +2141,7 @@
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
@@ -2155,7 +2155,7 @@
         <v>2014</v>
       </c>
       <c r="D71" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -2169,7 +2169,7 @@
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
@@ -2183,7 +2183,7 @@
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -2197,7 +2197,7 @@
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75">
@@ -2211,7 +2211,7 @@
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -2225,7 +2225,7 @@
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
@@ -2239,7 +2239,7 @@
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -2253,7 +2253,7 @@
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
@@ -2267,7 +2267,7 @@
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
@@ -2281,7 +2281,7 @@
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81">
@@ -2295,7 +2295,7 @@
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82">
@@ -2309,7 +2309,7 @@
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -2323,7 +2323,7 @@
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
@@ -2337,7 +2337,7 @@
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
@@ -2351,7 +2351,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86">
@@ -2379,7 +2379,7 @@
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -2393,7 +2393,7 @@
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -2407,7 +2407,7 @@
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
@@ -2421,7 +2421,7 @@
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91">
@@ -2435,7 +2435,7 @@
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
@@ -2449,7 +2449,7 @@
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
@@ -2477,7 +2477,7 @@
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95">
@@ -2491,7 +2491,7 @@
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
@@ -2519,7 +2519,7 @@
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
@@ -2533,7 +2533,7 @@
         <v>2014</v>
       </c>
       <c r="D98" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
@@ -2547,7 +2547,7 @@
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
@@ -2561,7 +2561,7 @@
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
@@ -2575,7 +2575,7 @@
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102">
@@ -2589,7 +2589,7 @@
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
@@ -2603,7 +2603,7 @@
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104">
@@ -2617,7 +2617,7 @@
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105">
@@ -2631,7 +2631,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106">
@@ -2645,7 +2645,7 @@
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107">
@@ -2659,7 +2659,7 @@
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
@@ -2673,7 +2673,7 @@
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
@@ -2687,7 +2687,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
@@ -2701,7 +2701,7 @@
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111">
@@ -2715,7 +2715,7 @@
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
@@ -2729,7 +2729,7 @@
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113">
@@ -2743,7 +2743,7 @@
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2765,6 +2765,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2772,373 +2775,514 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>55</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>15</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>63</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>50</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>43</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>55</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>45</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>60</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>50</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>55</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>30</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>55</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>58</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>55</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
         <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>68</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>50</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>43</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>40</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>30</v>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>50</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>30</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>55</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>51</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>48</v>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>38</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>48</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>73</v>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>40</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>38</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>75</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>35</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>65</v>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>45</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>58</v>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>50</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>30</v>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>75</v>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>88</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>30</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>40</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>45</v>
-      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>45</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>33</v>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>45</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3146,15 +3290,21 @@
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>58</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3162,127 +3312,175 @@
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>55</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>75</v>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>38</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>42</v>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>60</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>70</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>65</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>70</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>50</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>45</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>63</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>72</v>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>25</v>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>48</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>15</v>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
         <v>73</v>
       </c>
     </row>
@@ -3290,159 +3488,219 @@
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>60</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>15</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>35</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>45</v>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>65</v>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>70</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>60</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>75</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>30</v>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>30</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>65</v>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>77</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>25</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>55</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>10</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>35</v>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>35</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>50</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>60</v>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3450,55 +3708,76 @@
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>35</v>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>50</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>80</v>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>53</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>40</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>25</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3506,23 +3785,32 @@
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>45</v>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>45</v>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3530,136 +3818,187 @@
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>78</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>50</v>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>68</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>51</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>66</v>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>73</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>45</v>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>35</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>48</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>53</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>40</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>40</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>30</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>48</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>35</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>40</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>63</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,340 +28,676 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,557 +1184,651 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D33" t="n">
         <v>35</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D33" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D38" t="n">
         <v>40</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D38" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
-      <c r="D44" t="n">
-        <v>45</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
@@ -1408,21 +1838,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
@@ -1432,189 +1866,221 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
@@ -1624,237 +2090,277 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
       <c r="D71" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73"/>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
@@ -1864,81 +2370,95 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -1948,33 +2468,39 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
@@ -1984,206 +2510,240 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
       <c r="D98" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2205,901 +2765,1240 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>55</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="n">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="n">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="n">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="n">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="n">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="n">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="n">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="n">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="n">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="n">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="n">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="n">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="n">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
         <v>35</v>
-      </c>
-      <c r="B33" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="n">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="n">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="n">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="n">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
         <v>40</v>
-      </c>
-      <c r="B38" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="n">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="n">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="n">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="n">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="n">
-        <v>40</v>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="n">
-        <v>45</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="n">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="n">
-        <v>33</v>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="n">
-        <v>45</v>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="n">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="n">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="n">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="n">
-        <v>55</v>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="n">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="n">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="n">
-        <v>42</v>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="n">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="n">
-        <v>70</v>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="n">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="n">
-        <v>70</v>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="n">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="n">
-        <v>45</v>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="n">
-        <v>63</v>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="n">
-        <v>72</v>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="n">
-        <v>25</v>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="n">
-        <v>48</v>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="n">
-        <v>15</v>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="n">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="n">
-        <v>60</v>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="n">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="n">
-        <v>35</v>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="n">
-        <v>45</v>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="n">
-        <v>65</v>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="n">
-        <v>70</v>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="n">
-        <v>60</v>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="n">
-        <v>75</v>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="n">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="n">
-        <v>30</v>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="n">
-        <v>65</v>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="n">
-        <v>25</v>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="n">
-        <v>55</v>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="n">
-        <v>10</v>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n">
-        <v>35</v>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="n">
-        <v>35</v>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="n">
-        <v>50</v>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="n">
-        <v>60</v>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="n">
-        <v>35</v>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="n">
-        <v>50</v>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n">
-        <v>80</v>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n">
-        <v>53</v>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="n">
-        <v>40</v>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="n">
-        <v>25</v>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="n">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="n">
-        <v>45</v>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="n">
-        <v>45</v>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="n">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="n">
-        <v>78</v>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="n">
-        <v>50</v>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="n">
-        <v>68</v>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="n">
-        <v>51</v>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="n">
-        <v>66</v>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="n">
-        <v>73</v>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="n">
-        <v>45</v>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="n">
-        <v>35</v>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="n">
-        <v>48</v>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="n">
-        <v>53</v>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="n">
-        <v>40</v>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="n">
-        <v>40</v>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="n">
-        <v>30</v>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="n">
-        <v>48</v>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="n">
-        <v>35</v>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="n">
-        <v>40</v>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="n">
-        <v>63</v>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
+++ b/user-data/uganda-wash-perf-score/uganda-wash-perf-score.xlsx
@@ -724,7 +724,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 30</t>
+    <t xml:space="preserve">Source: 31</t>
   </si>
   <si>
     <t xml:space="preserve"/>
